--- a/INTLINE/data/578/THSE/Thailand General Index - Weekly.xlsx
+++ b/INTLINE/data/578/THSE/Thailand General Index - Weekly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="2407">
   <si>
     <t>1976-06-19</t>
   </si>
@@ -7208,6 +7208,12 @@
   </si>
   <si>
     <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>2022-06-11</t>
   </si>
   <si>
     <t>Index</t>
@@ -7586,15 +7592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CNJ2"/>
+  <dimension ref="A1:CNL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2402">
+    <row r="1" spans="1:2404">
       <c r="A1" s="1" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -14799,10 +14805,16 @@
       <c r="CNJ1" s="1" t="s">
         <v>2400</v>
       </c>
+      <c r="CNK1" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="CNL1" s="1" t="s">
+        <v>2402</v>
+      </c>
     </row>
-    <row r="2" spans="1:2402">
+    <row r="2" spans="1:2404">
       <c r="A2" s="1" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="B2">
         <v>77.93000000000001</v>
@@ -21996,16 +22008,22 @@
         <v>1638.75</v>
       </c>
       <c r="CNG2">
-        <v>1656.67</v>
-      </c>
-      <c r="CNH2" t="s">
-        <v>2402</v>
-      </c>
-      <c r="CNI2" t="s">
-        <v>2403</v>
+        <v>1647.67</v>
+      </c>
+      <c r="CNH2">
+        <v>1632.62</v>
+      </c>
+      <c r="CNI2">
+        <v>1609.65</v>
       </c>
       <c r="CNJ2" t="s">
         <v>2404</v>
+      </c>
+      <c r="CNK2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="CNL2" t="s">
+        <v>2406</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/578/THSE/Thailand General Index - Weekly.xlsx
+++ b/INTLINE/data/578/THSE/Thailand General Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CNM2"/>
+  <dimension ref="A1:CNN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12379,15 +12379,20 @@
       </c>
       <c r="CNK1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="CNL1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CNL1" s="1" t="inlineStr">
+      <c r="CNM1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CNM1" s="1" t="inlineStr">
+      <c r="CNN1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -19600,19 +19605,22 @@
         <v>1559.39</v>
       </c>
       <c r="CNJ2" t="n">
-        <v>1565</v>
-      </c>
-      <c r="CNK2" t="inlineStr">
+        <v>1568.76</v>
+      </c>
+      <c r="CNK2" t="n">
+        <v>1580.2</v>
+      </c>
+      <c r="CNL2" t="inlineStr">
         <is>
           <t>SETI</t>
         </is>
       </c>
-      <c r="CNL2" t="inlineStr">
+      <c r="CNM2" t="inlineStr">
         <is>
           <t>General Index, Close Price</t>
         </is>
       </c>
-      <c r="CNM2" t="inlineStr">
+      <c r="CNN2" t="inlineStr">
         <is>
           <t>Index: 1975.04.30=100</t>
         </is>
